--- a/deployment/Omaha_Cal_Info_CP02PMCI_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CP02PMCI_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7620" yWindow="8976" windowWidth="25500" windowHeight="12084" tabRatio="377"/>
+    <workbookView xWindow="7620" yWindow="8970" windowWidth="25500" windowHeight="12090" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="70">
   <si>
     <t>Ref Des</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>70° 53.329' W</t>
+  </si>
+  <si>
+    <t>OL000239</t>
   </si>
 </sst>
 </file>
@@ -977,24 +980,24 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.77734375" customWidth="1"/>
-    <col min="12" max="12" width="26.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>55</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -1067,14 +1070,20 @@
         <v>49</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M2" s="8">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>40.226700000000001</v>
+      </c>
+      <c r="N2" s="8">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.888816666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
@@ -1093,23 +1102,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
@@ -1165,7 +1174,7 @@
       </c>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>51</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>51</v>
       </c>
@@ -1221,7 +1230,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="32"/>
       <c r="C5" s="10"/>
@@ -1233,7 +1242,7 @@
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
@@ -1257,11 +1266,11 @@
       <c r="I6" s="29"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
       <c r="F7" s="22"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1289,7 +1298,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
@@ -1345,7 +1354,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1382,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
@@ -1401,7 +1410,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
@@ -1429,7 +1438,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1466,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>36</v>
       </c>
@@ -1485,7 +1494,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="32"/>
       <c r="C16" s="10"/>
@@ -1497,7 +1506,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>37</v>
       </c>
@@ -1525,7 +1534,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1553,7 +1562,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="32"/>
       <c r="C19" s="10"/>
@@ -1565,7 +1574,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
@@ -1593,7 +1602,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -1621,7 +1630,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="32"/>
       <c r="C22" s="10"/>
@@ -1633,7 +1642,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1672,7 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>38</v>
       </c>
@@ -1691,7 +1700,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>38</v>
       </c>
@@ -1719,7 +1728,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>38</v>
       </c>
@@ -1747,7 +1756,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>38</v>
       </c>
@@ -1777,7 +1786,7 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
@@ -1807,7 +1816,7 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>38</v>
       </c>
@@ -1835,7 +1844,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>38</v>
       </c>
@@ -1863,7 +1872,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1900,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>38</v>
       </c>
@@ -1921,7 +1930,7 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="32"/>
       <c r="C33" s="10"/>
@@ -1933,7 +1942,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>39</v>
       </c>
@@ -1961,7 +1970,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>39</v>
       </c>
@@ -1989,7 +1998,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="32"/>
       <c r="C36" s="9"/>
@@ -2001,7 +2010,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>46</v>
       </c>
@@ -2025,11 +2034,11 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>40</v>
       </c>
@@ -2042,7 +2051,9 @@
       <c r="D39" s="10">
         <v>3</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
       <c r="F39" s="20" t="s">
         <v>52</v>
       </c>
@@ -2051,184 +2062,184 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="17"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="17"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="17"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="17"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="17"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="17"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="17"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="17"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="17"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="17"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="17"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="17"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="17"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="17"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="17"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="17"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="17"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="17"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="17"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="17"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="17"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="17"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="17"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="17"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="17"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="17"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="17"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="17"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="17"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="17"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="17"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="17"/>
     </row>
   </sheetData>
